--- a/LOGS/e85e1f9f-cadb-446a-bfe3-3ffbf5234aed/main_page_service_output/notes_cropped_df.xlsx
+++ b/LOGS/e85e1f9f-cadb-446a-bfe3-3ffbf5234aed/main_page_service_output/notes_cropped_df.xlsx
@@ -7,16 +7,1354 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="13.__80ad65bf-ff6e-3" sheetId="1" r:id="rId1"/>
+    <sheet name="14.__80ad65bf-ff6e-3" sheetId="2" r:id="rId2"/>
+    <sheet name="15.__6902620c-4cfa-3" sheetId="3" r:id="rId3"/>
+    <sheet name="15.__489517f4-eacf-3" sheetId="4" r:id="rId4"/>
+    <sheet name="18.__fce0e101-5481-3" sheetId="5" r:id="rId5"/>
+    <sheet name="25.__33a8cbcb-7ece-3" sheetId="6" r:id="rId6"/>
+    <sheet name="16.__3d7bed10-a9ec-3" sheetId="7" r:id="rId7"/>
+    <sheet name="16.__489517f4-eacf-3" sheetId="8" r:id="rId8"/>
+    <sheet name="19.__084343ac-00e3-3" sheetId="9" r:id="rId9"/>
+    <sheet name="21.__ee318bb5-7536-3" sheetId="10" r:id="rId10"/>
+    <sheet name="21.__5a5123dd-fa7c-3" sheetId="11" r:id="rId11"/>
+    <sheet name="20.__40305aa6-99f8-3" sheetId="12" r:id="rId12"/>
+    <sheet name="22.__40e979ec-b129-3" sheetId="13" r:id="rId13"/>
+    <sheet name="22.__7e889f7a-3db6-3" sheetId="14" r:id="rId14"/>
+    <sheet name="23.__849ef834-2dce-3" sheetId="15" r:id="rId15"/>
+    <sheet name="23.__7e889f7a-3db6-3" sheetId="16" r:id="rId16"/>
+    <sheet name="24.__637334f5-79ce-3" sheetId="17" r:id="rId17"/>
+    <sheet name="26.__00472df8-2884-3" sheetId="18" r:id="rId18"/>
+    <sheet name="26.__53fa3687-839e-3" sheetId="19" r:id="rId19"/>
+    <sheet name="8.__917a371c-1abf-38" sheetId="20" r:id="rId20"/>
+    <sheet name="9.__917a371c-1abf-38" sheetId="21" r:id="rId21"/>
+    <sheet name="10.__917a371c-1abf-3" sheetId="22" r:id="rId22"/>
+    <sheet name="10.__2568a2e9-dc3d-3" sheetId="23" r:id="rId23"/>
+    <sheet name="11.__2568a2e9-dc3d-3" sheetId="24" r:id="rId24"/>
+    <sheet name="12.__bfc7fbba-d83b-3" sheetId="25" r:id="rId25"/>
+    <sheet name="12.__b83d9898-5f81-3" sheetId="26" r:id="rId26"/>
+    <sheet name="12.__1881121a-bfa6-3" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="433">
+  <si>
+    <t>13. Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Bank balances</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents in the statement of financial position</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents in the statement of cash flows</t>
+  </si>
+  <si>
+    <t>14. Trade and Other Receivables</t>
+  </si>
+  <si>
+    <t>Trade receivables due from related parties</t>
+  </si>
+  <si>
+    <t>Loan receivables from related parties</t>
+  </si>
+  <si>
+    <t>Other trade receivables</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>15. Inventories</t>
+  </si>
+  <si>
+    <t>Finished goods</t>
+  </si>
+  <si>
+    <t>Finished goods in transit</t>
+  </si>
+  <si>
+    <t>Provision</t>
+  </si>
+  <si>
+    <t>16. Equity-accounted investees</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>$'000</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Other investment, including derivatives</t>
+  </si>
+  <si>
+    <t>Current investments</t>
+  </si>
+  <si>
+    <t>Forward exchange contracts used for hedging</t>
+  </si>
+  <si>
+    <t>Non-Current investments</t>
+  </si>
+  <si>
+    <t>Interest Swap</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Tax related payables and receivables</t>
+  </si>
+  <si>
+    <t>Tax related receivables from related entities</t>
+  </si>
+  <si>
+    <t>Income tax receivable</t>
+  </si>
+  <si>
+    <t>Tax related payables to related entities</t>
+  </si>
+  <si>
+    <t>Income tax payable</t>
+  </si>
+  <si>
+    <t>65626</t>
+  </si>
+  <si>
+    <t>8964</t>
+  </si>
+  <si>
+    <t>57107</t>
+  </si>
+  <si>
+    <t>66071</t>
+  </si>
+  <si>
+    <t>55190</t>
+  </si>
+  <si>
+    <t>2687</t>
+  </si>
+  <si>
+    <t>14449</t>
+  </si>
+  <si>
+    <t>17136</t>
+  </si>
+  <si>
+    <t>Summit Investment Australia Pty Limited</t>
+  </si>
+  <si>
+    <t>SC Metal Pty Ltd</t>
+  </si>
+  <si>
+    <t>Summit Rural (WA) Pty Limited</t>
+  </si>
+  <si>
+    <t>Alloy Pipe International Pty Ltd</t>
+  </si>
+  <si>
+    <t>SC Mineral Resources Pty Ltd</t>
+  </si>
+  <si>
+    <t>Equity interest</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>15.00%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>18.00%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>5911</t>
+  </si>
+  <si>
+    <t>8777</t>
+  </si>
+  <si>
+    <t>16772</t>
+  </si>
+  <si>
+    <t>16324</t>
+  </si>
+  <si>
+    <t>4903</t>
+  </si>
+  <si>
+    <t>5546</t>
+  </si>
+  <si>
+    <t>20321</t>
+  </si>
+  <si>
+    <t>16415</t>
+  </si>
+  <si>
+    <t>Interest in associates</t>
+  </si>
+  <si>
+    <t>47784</t>
+  </si>
+  <si>
+    <t>47184</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Balance 2022</t>
+  </si>
+  <si>
+    <t>Additions</t>
+  </si>
+  <si>
+    <t>Disposals</t>
+  </si>
+  <si>
+    <t>Net exchange</t>
+  </si>
+  <si>
+    <t>Balance 2023</t>
+  </si>
+  <si>
+    <t>Accumulated</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Carrying</t>
+  </si>
+  <si>
+    <t>At 1 April 2022</t>
+  </si>
+  <si>
+    <t>At31 March 2023</t>
+  </si>
+  <si>
+    <t>Building and structure $'000</t>
+  </si>
+  <si>
+    <t>1861</t>
+  </si>
+  <si>
+    <t>(1,803)</t>
+  </si>
+  <si>
+    <t>(7)</t>
+  </si>
+  <si>
+    <t>(1,810)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Plant and equipment $'000</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>(63)</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>(1,273)</t>
+  </si>
+  <si>
+    <t>(159)</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>(1,369)</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>Vehicles $'000</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>(36)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>(39)</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>Fixtures and fittings $'000</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>(652)</t>
+  </si>
+  <si>
+    <t>(657)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Right of Use Building $'000</t>
+  </si>
+  <si>
+    <t>6608</t>
+  </si>
+  <si>
+    <t>(4,167)</t>
+  </si>
+  <si>
+    <t>(1,342)</t>
+  </si>
+  <si>
+    <t>(5,509)</t>
+  </si>
+  <si>
+    <t>2440</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>Total $'000</t>
+  </si>
+  <si>
+    <t>10819</t>
+  </si>
+  <si>
+    <t>(103)</t>
+  </si>
+  <si>
+    <t>10960</t>
+  </si>
+  <si>
+    <t>(7,934)</t>
+  </si>
+  <si>
+    <t>(1,515)</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>(9,347)</t>
+  </si>
+  <si>
+    <t>2884</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>Derivatives</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>Other items</t>
+  </si>
+  <si>
+    <t>2021 $'000</t>
+  </si>
+  <si>
+    <t>(948)</t>
+  </si>
+  <si>
+    <t>(17)</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>3044</t>
+  </si>
+  <si>
+    <t>(23)</t>
+  </si>
+  <si>
+    <t>1448</t>
+  </si>
+  <si>
+    <t>3654</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss $'000</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>(285)</t>
+  </si>
+  <si>
+    <t>(738)</t>
+  </si>
+  <si>
+    <t>(802)</t>
+  </si>
+  <si>
+    <t>Recognised in OCI $'000</t>
+  </si>
+  <si>
+    <t>(51)</t>
+  </si>
+  <si>
+    <t>Adjustment $'000</t>
+  </si>
+  <si>
+    <t>2022 $'000</t>
+  </si>
+  <si>
+    <t>(730)</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2759</t>
+  </si>
+  <si>
+    <t>(30)</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>2801</t>
+  </si>
+  <si>
+    <t>Other current</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>(532)</t>
+  </si>
+  <si>
+    <t>(211)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>(359)</t>
+  </si>
+  <si>
+    <t>(102)</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>2023 $'000</t>
+  </si>
+  <si>
+    <t>(406)</t>
+  </si>
+  <si>
+    <t>2227</t>
+  </si>
+  <si>
+    <t>(241)</t>
+  </si>
+  <si>
+    <t>1296</t>
+  </si>
+  <si>
+    <t>2874</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Amortisation</t>
+  </si>
+  <si>
+    <t>Software $'000</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>(1,986)</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>(2,379)</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>(416)</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Other $'000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>(8)</t>
+  </si>
+  <si>
+    <t>2413</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>(2,387)</t>
+  </si>
+  <si>
+    <t>(425)</t>
+  </si>
+  <si>
+    <t>Trade and Other Payables</t>
+  </si>
+  <si>
+    <t>Trade payables due to related parties</t>
+  </si>
+  <si>
+    <t>Other trade payables</t>
+  </si>
+  <si>
+    <t>Accrued expenses</t>
+  </si>
+  <si>
+    <t>Trade payable</t>
+  </si>
+  <si>
+    <t>Interest rate swaps used for hedging</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>Non current</t>
+  </si>
+  <si>
+    <t>34776</t>
+  </si>
+  <si>
+    <t>3419</t>
+  </si>
+  <si>
+    <t>5533</t>
+  </si>
+  <si>
+    <t>43728</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>43736</t>
+  </si>
+  <si>
+    <t>42099</t>
+  </si>
+  <si>
+    <t>8756</t>
+  </si>
+  <si>
+    <t>7646</t>
+  </si>
+  <si>
+    <t>58501</t>
+  </si>
+  <si>
+    <t>58928</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Sumisho Coal Australia Pty Ltd</t>
+  </si>
+  <si>
+    <t>Ocean Coal Mining Pty Ltd</t>
+  </si>
+  <si>
+    <t>Scap C Pty Ltd</t>
+  </si>
+  <si>
+    <t>Scap Oaky Creek Pty Ltd</t>
+  </si>
+  <si>
+    <t>Sumisho Coal Development Pty Ltd</t>
+  </si>
+  <si>
+    <t>Sc Mineral Resources Pty Ltd.</t>
+  </si>
+  <si>
+    <t>Sumisho Coal Australia Holdings Pty</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Carrying amount</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>211655</t>
+  </si>
+  <si>
+    <t>165700</t>
+  </si>
+  <si>
+    <t>33299</t>
+  </si>
+  <si>
+    <t>51900</t>
+  </si>
+  <si>
+    <t>4246</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>1386</t>
+  </si>
+  <si>
+    <t>25700</t>
+  </si>
+  <si>
+    <t>503436</t>
+  </si>
+  <si>
+    <t>18400</t>
+  </si>
+  <si>
+    <t>3609</t>
+  </si>
+  <si>
+    <t>4100</t>
+  </si>
+  <si>
+    <t>2272</t>
+  </si>
+  <si>
+    <t>2840</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>21117</t>
+  </si>
+  <si>
+    <t>165200</t>
+  </si>
+  <si>
+    <t>25193</t>
+  </si>
+  <si>
+    <t>44500</t>
+  </si>
+  <si>
+    <t>2940</t>
+  </si>
+  <si>
+    <t>7500</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>300906</t>
+  </si>
+  <si>
+    <t>Lease liabilities</t>
+  </si>
+  <si>
+    <t>Loan from related entities</t>
+  </si>
+  <si>
+    <t>Non-Current</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>504362</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>1899</t>
+  </si>
+  <si>
+    <t>302805</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>Balance at 31 March 2022</t>
+  </si>
+  <si>
+    <t>Additional provisions</t>
+  </si>
+  <si>
+    <t>Amount utilised</t>
+  </si>
+  <si>
+    <t>Reversals</t>
+  </si>
+  <si>
+    <t>Balance at 31 March 2023</t>
+  </si>
+  <si>
+    <t>Decommi ssioning</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>2484</t>
+  </si>
+  <si>
+    <t>(609)</t>
+  </si>
+  <si>
+    <t>2585</t>
+  </si>
+  <si>
+    <t>1523</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>3711</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>3854</t>
+  </si>
+  <si>
+    <t>2792</t>
+  </si>
+  <si>
+    <t>Cash flow hedges - effective portion of changes</t>
+  </si>
+  <si>
+    <t>Equity-accounted investees - share of OCI</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>SAPL (AUK) Trial Balance Translation</t>
+  </si>
+  <si>
+    <t>Hedge reserve</t>
+  </si>
+  <si>
+    <t>(1,009)</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>(837)</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>(64)</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Fair value reserve</t>
+  </si>
+  <si>
+    <t>(741)</t>
+  </si>
+  <si>
+    <t>(659)</t>
+  </si>
+  <si>
+    <t>(1,400)</t>
+  </si>
+  <si>
+    <t>Translation Reserve</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4 (1,342)</t>
+  </si>
+  <si>
+    <t>5568</t>
+  </si>
+  <si>
+    <t>4559</t>
+  </si>
+  <si>
+    <t>(805)</t>
+  </si>
+  <si>
+    <t>(d)</t>
+  </si>
+  <si>
+    <t>Dividend franking account</t>
+  </si>
+  <si>
+    <t>30 percent franking credits available to 731,994 shareholders of the company</t>
+  </si>
+  <si>
+    <t>8. Revenue</t>
+  </si>
+  <si>
+    <t>Disaggregation of revenue</t>
+  </si>
+  <si>
+    <t>Type of good or service</t>
+  </si>
+  <si>
+    <t>Products transferred at a point in time</t>
+  </si>
+  <si>
+    <t>Services transferred over time</t>
+  </si>
+  <si>
+    <t>Geographical region</t>
+  </si>
+  <si>
+    <t>Australia / New Zealand</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Type of contract</t>
+  </si>
+  <si>
+    <t>Fixed price</t>
+  </si>
+  <si>
+    <t>Time and materials</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>85975</t>
+  </si>
+  <si>
+    <t>17525</t>
+  </si>
+  <si>
+    <t>103500</t>
+  </si>
+  <si>
+    <t>79297</t>
+  </si>
+  <si>
+    <t>21955</t>
+  </si>
+  <si>
+    <t>2248</t>
+  </si>
+  <si>
+    <t>5175</t>
+  </si>
+  <si>
+    <t>98325</t>
+  </si>
+  <si>
+    <t>180076</t>
+  </si>
+  <si>
+    <t>18897</t>
+  </si>
+  <si>
+    <t>198973</t>
+  </si>
+  <si>
+    <t>144055</t>
+  </si>
+  <si>
+    <t>52259</t>
+  </si>
+  <si>
+    <t>2659</t>
+  </si>
+  <si>
+    <t>5657</t>
+  </si>
+  <si>
+    <t>193316</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>Bank guarantee</t>
+  </si>
+  <si>
+    <t>Other expense</t>
+  </si>
+  <si>
+    <t>Net loss on sale or property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Loss on inventory obsolescence</t>
+  </si>
+  <si>
+    <t>Administrative Expenses</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>723</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Employee benefits expense</t>
+  </si>
+  <si>
+    <t>Depreciation and amortisation</t>
+  </si>
+  <si>
+    <t>Service fees</t>
+  </si>
+  <si>
+    <t>Other expenses</t>
+  </si>
+  <si>
+    <t>13318</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>4043</t>
+  </si>
+  <si>
+    <t>20918</t>
+  </si>
+  <si>
+    <t>13858</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>2326</t>
+  </si>
+  <si>
+    <t>3122</t>
+  </si>
+  <si>
+    <t>20903</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>Interest income from cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Interest income from financial assets measured at amortised cost</t>
+  </si>
+  <si>
+    <t>Net foreign exchange gain</t>
+  </si>
+  <si>
+    <t>Derivaties at FVTPL net change in fair value</t>
+  </si>
+  <si>
+    <t>Finance income</t>
+  </si>
+  <si>
+    <t>Interest expense from financial liabilities measured at amortised cost</t>
+  </si>
+  <si>
+    <t>Unwind of discount on decommissioning provision</t>
+  </si>
+  <si>
+    <t>Unwind of discount on Lease Liability</t>
+  </si>
+  <si>
+    <t>Net foreign exchange loss</t>
+  </si>
+  <si>
+    <t>Derivaties at FVTPL - net change in fair value</t>
+  </si>
+  <si>
+    <t>Finance costs</t>
+  </si>
+  <si>
+    <t>Net finance income</t>
+  </si>
+  <si>
+    <t>5728</t>
+  </si>
+  <si>
+    <t>6957</t>
+  </si>
+  <si>
+    <t>12685</t>
+  </si>
+  <si>
+    <t>7831</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>8781</t>
+  </si>
+  <si>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>2069</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>Amounts recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>Current tax benefit</t>
+  </si>
+  <si>
+    <t>Current year</t>
+  </si>
+  <si>
+    <t>Adjustment for prior years</t>
+  </si>
+  <si>
+    <t>Deferred tax expense</t>
+  </si>
+  <si>
+    <t>Origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>Tax expense/(benefit) on continuing operation</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>(1,713)</t>
+  </si>
+  <si>
+    <t>(1,307)</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>(38,100)</t>
+  </si>
+  <si>
+    <t>(9,247)</t>
+  </si>
+  <si>
+    <t>(47,347)</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>(46,544)</t>
+  </si>
+  <si>
+    <t>(b) Amounts recognised in OCI</t>
+  </si>
+  <si>
+    <t>Tax expense recognised in other comprehensive income 432</t>
+  </si>
+  <si>
+    <t>(50)</t>
+  </si>
+  <si>
+    <t>Profit/(Loss) before tax</t>
+  </si>
+  <si>
+    <t>Tax using the domestic tax rate</t>
+  </si>
+  <si>
+    <t>Expected tax (expense)benefit</t>
+  </si>
+  <si>
+    <t>Tax effect of:</t>
+  </si>
+  <si>
+    <t>Share of profit of equity-accounted investees reported net of tax</t>
+  </si>
+  <si>
+    <t>Non-deductible expense</t>
+  </si>
+  <si>
+    <t>Advance pricing agreement (APA) adjustment</t>
+  </si>
+  <si>
+    <t>Prior year over provision</t>
+  </si>
+  <si>
+    <t>Tax not provided</t>
+  </si>
+  <si>
+    <t>Tax Credit Transfer</t>
+  </si>
+  <si>
+    <t>Utilisation of unused tax losses</t>
+  </si>
+  <si>
+    <t>Actual Income tax benefit</t>
+  </si>
+  <si>
+    <t>4359</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>(1,308)</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1713</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
+  <si>
+    <t>11037</t>
+  </si>
+  <si>
+    <t>(3,311)</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>9247</t>
+  </si>
+  <si>
+    <t>38038</t>
+  </si>
+  <si>
+    <t>46346</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +1370,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +1378,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +1696,3017 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>403580</v>
+      </c>
+      <c r="C3">
+        <v>218214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>403580</v>
+      </c>
+      <c r="C4">
+        <v>218214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>403580</v>
+      </c>
+      <c r="C5">
+        <v>218214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>612069</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4142</v>
+      </c>
+      <c r="C3">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>238752</v>
+      </c>
+      <c r="C4">
+        <v>154419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8390</v>
+      </c>
+      <c r="C5">
+        <v>71877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>251284</v>
+      </c>
+      <c r="C6">
+        <v>229533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3640</v>
+      </c>
+      <c r="C7">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>247644</v>
+      </c>
+      <c r="C8">
+        <v>222363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9">
+        <v>251284</v>
+      </c>
+      <c r="C9">
+        <v>229533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>13279</v>
+      </c>
+      <c r="C3">
+        <v>17206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>31876</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>45155</v>
+      </c>
+      <c r="C6">
+        <v>17606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>